--- a/aliexpress/cmd/shipfundList.xlsx
+++ b/aliexpress/cmd/shipfundList.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mrhuang\go_work\go_study\aliexpress\cmd\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView windowWidth="20490" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,12 +19,13 @@
     <author>huan</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <charset val="134"/>
           </rPr>
           <t>可以在POI中添加注释！</t>
         </r>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="139">
   <si>
     <t>物流订单号</t>
   </si>
@@ -187,9 +183,6 @@
   </si>
   <si>
     <t>2019.10.15 15:48</t>
-  </si>
-  <si>
-    <t>0.109</t>
   </si>
   <si>
     <t>支付宝国际账户（Alipayaccount）美元账户，汇率:7.0861</t>
@@ -465,26 +458,179 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="20"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,8 +643,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -521,9 +853,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -531,17 +1105,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -590,7 +1208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,7 +1243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -799,27 +1417,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" width="21.7109375" customWidth="1"/>
+    <col min="1" max="256" width="21.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +1475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>5302051873</v>
       </c>
@@ -901,7 +1516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>5302047986</v>
       </c>
@@ -924,7 +1539,7 @@
         <v>18</v>
       </c>
       <c r="H3">
-        <v>20.149999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -942,7 +1557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>5302083052</v>
       </c>
@@ -983,7 +1598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>5255830372</v>
       </c>
@@ -1024,7 +1639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5282559366</v>
       </c>
@@ -1065,7 +1680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5242928568</v>
       </c>
@@ -1106,7 +1721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>5243496027</v>
       </c>
@@ -1147,7 +1762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>5226236630</v>
       </c>
@@ -1163,8 +1778,8 @@
       <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
-        <v>49</v>
+      <c r="F9">
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1173,7 +1788,7 @@
         <v>31.6</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>4.46</v>
@@ -1188,12 +1803,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>5226244506</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1205,16 +1820,16 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10">
-        <v>18.809999999999999</v>
+        <v>18.81</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>2.65</v>
@@ -1229,12 +1844,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>5226218916</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -1243,10 +1858,10 @@
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
@@ -1255,7 +1870,7 @@
         <v>25.42</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>3.59</v>
@@ -1270,24 +1885,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>5273223171</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -1296,7 +1911,7 @@
         <v>21.54</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12">
         <v>3.04</v>
@@ -1311,24 +1926,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>5262279313</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1337,7 +1952,7 @@
         <v>19.45</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13">
         <v>2.74</v>
@@ -1352,24 +1967,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>5263643258</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>66</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -1378,7 +1993,7 @@
         <v>19.86</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14">
         <v>2.8</v>
@@ -1393,24 +2008,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>5217572703</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
         <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -1419,7 +2034,7 @@
         <v>23.55</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15">
         <v>3.32</v>
@@ -1434,24 +2049,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>5263639405</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -1460,7 +2075,7 @@
         <v>19.77</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16">
         <v>2.78</v>
@@ -1475,33 +2090,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>5217588377</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="H17">
-        <v>19.670000000000002</v>
+        <v>19.67</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17">
         <v>2.77</v>
@@ -1516,24 +2131,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>5263631410</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -1542,7 +2157,7 @@
         <v>19.38</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18">
         <v>2.73</v>
@@ -1557,21 +2172,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>5224388976</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
         <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
       </c>
       <c r="F19" t="s">
         <v>45</v>
@@ -1583,7 +2198,7 @@
         <v>27.64</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19">
         <v>3.89</v>
@@ -1598,24 +2213,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>5217584420</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
         <v>82</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -1624,7 +2239,7 @@
         <v>20.37</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20">
         <v>2.87</v>
@@ -1639,24 +2254,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>5263613668</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
         <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
@@ -1665,7 +2280,7 @@
         <v>19.41</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21">
         <v>2.73</v>
@@ -1680,24 +2295,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>5263643102</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
         <v>89</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>91</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -1706,7 +2321,7 @@
         <v>25.41</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22">
         <v>3.56</v>
@@ -1721,24 +2336,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>5253797278</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
         <v>94</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>95</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
       </c>
       <c r="G23" t="s">
         <v>18</v>
@@ -1747,7 +2362,7 @@
         <v>21.2</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J23">
         <v>2.96</v>
@@ -1762,24 +2377,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>5260777872</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
         <v>99</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>101</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
@@ -1788,7 +2403,7 @@
         <v>45.17</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J24">
         <v>6.31</v>
@@ -1803,24 +2418,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>5260769941</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
         <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>104</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
@@ -1829,7 +2444,7 @@
         <v>45.02</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25">
         <v>6.28</v>
@@ -1844,24 +2459,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>5257799246</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
         <v>106</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>107</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
@@ -1870,7 +2485,7 @@
         <v>21.01</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26">
         <v>2.94</v>
@@ -1885,24 +2500,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>5257771872</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" t="s">
         <v>111</v>
-      </c>
-      <c r="F27" t="s">
-        <v>112</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
@@ -1911,7 +2526,7 @@
         <v>23.69</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27">
         <v>3.31</v>
@@ -1926,24 +2541,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>5207696290</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" t="s">
         <v>114</v>
-      </c>
-      <c r="F28" t="s">
-        <v>115</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -1952,7 +2567,7 @@
         <v>167</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J28">
         <v>23.33</v>
@@ -1967,24 +2582,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>5249627984</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
         <v>118</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>120</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
@@ -1993,7 +2608,7 @@
         <v>20.91</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J29">
         <v>2.92</v>
@@ -2008,24 +2623,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>5191388582</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
         <v>122</v>
       </c>
-      <c r="E30" t="s">
-        <v>123</v>
-      </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
@@ -2034,10 +2649,10 @@
         <v>30.86</v>
       </c>
       <c r="I30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J30">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="K30" t="s">
         <v>20</v>
@@ -2049,24 +2664,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>5199846580</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
         <v>125</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>126</v>
-      </c>
-      <c r="F31" t="s">
-        <v>127</v>
       </c>
       <c r="G31" t="s">
         <v>18</v>
@@ -2075,7 +2690,7 @@
         <v>41.89</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31">
         <v>5.84</v>
@@ -2090,24 +2705,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>5197808275</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
         <v>130</v>
       </c>
-      <c r="E32" t="s">
-        <v>131</v>
-      </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -2116,7 +2731,7 @@
         <v>22.19</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J32">
         <v>3.1</v>
@@ -2131,24 +2746,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>5195694893</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
         <v>133</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>134</v>
-      </c>
-      <c r="F33" t="s">
-        <v>135</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
@@ -2157,7 +2772,7 @@
         <v>34.1</v>
       </c>
       <c r="I33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J33">
         <v>4.76</v>
@@ -2172,24 +2787,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>5243273297</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
         <v>137</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>138</v>
-      </c>
-      <c r="F34" t="s">
-        <v>139</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
@@ -2198,7 +2813,7 @@
         <v>20.58</v>
       </c>
       <c r="I34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J34">
         <v>2.87</v>
@@ -2214,9 +2829,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
